--- a/biology/Botanique/Desmoncus/Desmoncus.xlsx
+++ b/biology/Botanique/Desmoncus/Desmoncus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desmoncus est un genre de palmiers, des plantes de la famille des Arecaceae, qui s'étend du Mexique jusqu'au Brésil et Bolivie. Deux espèces, Desmoncus orthacanthos et Desmoncus polyacanthos, sont présentes dans le sud des Caraïbes. 
 </t>
@@ -511,15 +523,52 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Famille des Arecaceae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
 Tribu des Cocoseae
-Sous-tribu des Bactridinae[1],[2]
+Sous-tribu des Bactridinae,
 Sa sous-tribu comprend quatre autres genres, Bactris, Aiphanes, Gastrococos et Astrocaryum.
-Liste des espèces
-Desmoncus chinantlensis 		Liebm. ex Mart.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Desmoncus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desmoncus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Desmoncus chinantlensis 		Liebm. ex Mart.
 Desmoncus cirrhifer 			A.H.Gentry &amp; Zardini
 Desmoncus costaricensis 		(Kuntze) Burret
 Desmoncus giganteus 		A.J.Hend.
